--- a/output/historicalEmissionsTranslations.xlsx
+++ b/output/historicalEmissionsTranslations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
   <si>
     <t>code</t>
   </si>
@@ -35,21 +35,21 @@
     <t>pt</t>
   </si>
   <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
     <t>ar</t>
   </si>
   <si>
-    <t>zh</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>country.China</t>
   </si>
   <si>
@@ -59,13 +59,81 @@
     <t>Chine</t>
   </si>
   <si>
+    <t>Cina</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
     <t>country.EuropeanUnion28</t>
   </si>
   <si>
     <t>European Union (28)</t>
   </si>
   <si>
-    <t>Union européenne (UE 28)</t>
+    <t>Union européenne (UE28)</t>
+  </si>
+  <si>
+    <t>Europäische Union (EU 28)</t>
+  </si>
+  <si>
+    <t>Unione europea (UE 28)</t>
+  </si>
+  <si>
+    <t>União Europeia (UE 28)</t>
+  </si>
+  <si>
+    <r>
+      <t>欧盟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Евросоюз</t>
+  </si>
+  <si>
+    <t>Unión Europea (UE 28)</t>
+  </si>
+  <si>
+    <r>
+      <t>EU28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>カ国</t>
+    </r>
   </si>
   <si>
     <t>country.India</t>
@@ -77,6 +145,21 @@
     <t>Inde</t>
   </si>
   <si>
+    <t>Indien</t>
+  </si>
+  <si>
+    <t>Índia</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>Индия </t>
+  </si>
+  <si>
+    <t>インド</t>
+  </si>
+  <si>
     <t>country.Japan</t>
   </si>
   <si>
@@ -86,6 +169,21 @@
     <t>Japon</t>
   </si>
   <si>
+    <t>Giappone</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
     <t>country.RussianFederation</t>
   </si>
   <si>
@@ -95,6 +193,27 @@
     <t>Fédération de Russie</t>
   </si>
   <si>
+    <t>Russische Föderation</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Federação da Rússia</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>Российская Федерация</t>
+  </si>
+  <si>
+    <t>Federación Rusa</t>
+  </si>
+  <si>
+    <t>ロシア</t>
+  </si>
+  <si>
     <t>country.Switzerland</t>
   </si>
   <si>
@@ -104,6 +223,27 @@
     <t>Suisse</t>
   </si>
   <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Svizzera</t>
+  </si>
+  <si>
+    <t>Suíça</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>Швейцария</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>スイス</t>
+  </si>
+  <si>
     <t>country.UnitedStates</t>
   </si>
   <si>
@@ -113,6 +253,24 @@
     <t>Etats-Unis</t>
   </si>
   <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Stati Uniti</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>米国</t>
+  </si>
+  <si>
     <t>country.others</t>
   </si>
   <si>
@@ -122,12 +280,92 @@
     <t>Autres pays</t>
   </si>
   <si>
+    <t>andere Länder</t>
+  </si>
+  <si>
+    <t>Altri paesi</t>
+  </si>
+  <si>
+    <t>Outros países</t>
+  </si>
+  <si>
+    <t>其他国家</t>
+  </si>
+  <si>
+    <t>Другие страны</t>
+  </si>
+  <si>
+    <t>Otros países</t>
+  </si>
+  <si>
+    <t>その他の国</t>
+  </si>
+  <si>
     <t>tp.mtco2</t>
   </si>
   <si>
     <t>mega tonnes CO2</t>
   </si>
   <si>
+    <t>Megatonnen CO2</t>
+  </si>
+  <si>
+    <t>milioni di tonnellate di CO2</t>
+  </si>
+  <si>
+    <t>megatoneladas de CO2 </t>
+  </si>
+  <si>
+    <r>
+      <t>万亿吨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+  </si>
+  <si>
+    <t>СО2 в мегатоннах</t>
+  </si>
+  <si>
+    <t>megatoneladas CO2</t>
+  </si>
+  <si>
+    <r>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>量　メガトン（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>万トン）</t>
+    </r>
+  </si>
+  <si>
     <t>legend.country</t>
   </si>
   <si>
@@ -137,6 +375,24 @@
     <t>Pays</t>
   </si>
   <si>
+    <t>Länder</t>
+  </si>
+  <si>
+    <t>Paesi</t>
+  </si>
+  <si>
+    <t>Países</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>Страны</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
     <t>legend.descr</t>
   </si>
   <si>
@@ -146,6 +402,46 @@
     <t>(Cliquez pour masquer)</t>
   </si>
   <si>
+    <t>(Mit Klick verbergen)</t>
+  </si>
+  <si>
+    <t>(Cliccare per nascondere)</t>
+  </si>
+  <si>
+    <t>(clicar para esconder)</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>点击隐藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>(Нажать, чтобы скрыть)</t>
+  </si>
+  <si>
+    <t>(Cliquee para ocultar)</t>
+  </si>
+  <si>
+    <t>（クリックすると隠れます）</t>
+  </si>
+  <si>
     <t>y.title</t>
   </si>
   <si>
@@ -155,25 +451,282 @@
     <t>Milliards de tonnes de CO2</t>
   </si>
   <si>
+    <t>Milliarden Tonnen CO2</t>
+  </si>
+  <si>
+    <t>Miliardi di tonnellate di CO2</t>
+  </si>
+  <si>
+    <t>Bilhões de toneladas de CO2</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>亿吨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+  </si>
+  <si>
+    <t>СО2 в млрд тонн</t>
+  </si>
+  <si>
+    <t>Miles de millones de toneladas de CO2</t>
+  </si>
+  <si>
+    <r>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>量　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>億トン</t>
+    </r>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
     <t>Total CO2 emissions 1850-2012</t>
   </si>
   <si>
+    <t>Emissions totales de CO2 1850-2012</t>
+  </si>
+  <si>
+    <t>Gesamter CO2-Ausstoss 1850-2012</t>
+  </si>
+  <si>
+    <t>Totale delle emissioni di CO2 1850-2012</t>
+  </si>
+  <si>
+    <t>Total de emissões de CO2 entre 1850-2012</t>
+  </si>
+  <si>
+    <r>
+      <t>1850-2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>年全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>排放量</t>
+    </r>
+  </si>
+  <si>
+    <t>Общая эмиссия СО2 1850-2012 гг.</t>
+  </si>
+  <si>
+    <t>Total de emisiones de CO2 (1850-2012)</t>
+  </si>
+  <si>
+    <r>
+      <t>1850~2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>年の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>総排出量</t>
+    </r>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
     <t>Excluding Land-Use Change and Forestry</t>
   </si>
   <si>
+    <r>
+      <t>A l'exclusion des émissions résultant de la réaffectati</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF242424"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t> des </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF131313"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t>sols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t> et d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF242424"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t>e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2E2E2E"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t>la sylviculture</t>
+    </r>
+  </si>
+  <si>
+    <t>Ohne Landnutzungsänderungen und Forstwirtschaft</t>
+  </si>
+  <si>
+    <t>Escluso il settore agricolo e forestale</t>
+  </si>
+  <si>
+    <t>Excluíndo alterações do uso do solo e silvicultura</t>
+  </si>
+  <si>
+    <t>不包括土地利用变化和林业</t>
+  </si>
+  <si>
+    <t>Без учета изменений в порядке землепользовании и в лесном хозяйстве</t>
+  </si>
+  <si>
+    <t>Excluidos el cambio del uso de la tierra y la silvicultura</t>
+  </si>
+  <si>
+    <t>土地利用変化および林業分野における排出・吸収量は除く</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>fonte</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>Источник</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>出典</t>
+  </si>
+  <si>
     <t>sourceName</t>
   </si>
   <si>
     <t>CAIT Climate Data Explorer 2015</t>
+  </si>
+  <si>
+    <r>
+      <t>气候数据浏览器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(CAIT)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -183,11 +736,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -210,6 +764,35 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF131313"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +837,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +850,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -276,6 +867,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF131313"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF1B1B1B"/>
+      <rgbColor rgb="FF242424"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF2E2E2E"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -284,21 +935,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6683673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -332,8 +983,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
@@ -343,164 +995,506 @@
       <c r="C2" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
